--- a/Pattern.XLSX
+++ b/Pattern.XLSX
@@ -353,10 +353,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -372,7 +372,7 @@
     <col min="11" max="11" width="2.140625" customWidth="1"/>
     <col min="12" max="12" width="2.85546875" customWidth="1"/>
     <col min="13" max="13" width="3" customWidth="1"/>
-    <col min="14" max="14" width="2.85546875" customWidth="1"/>
+    <col min="14" max="14" width="4.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -549,86 +549,86 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
         <v>3</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>4</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>5</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>6</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>7</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>8</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>9</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>10</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>11</v>
       </c>
-      <c r="N10">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>7</v>
+      </c>
+      <c r="J11">
+        <v>8</v>
+      </c>
+      <c r="K11">
+        <v>9</v>
+      </c>
+      <c r="L11">
+        <v>10</v>
+      </c>
+      <c r="M11">
+        <v>11</v>
+      </c>
+      <c r="N11">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I11" t="s">
-        <v>1</v>
-      </c>
-      <c r="J11" t="s">
-        <v>0</v>
-      </c>
-      <c r="K11" t="s">
-        <v>0</v>
-      </c>
-      <c r="L11" t="s">
-        <v>0</v>
-      </c>
-      <c r="M11" t="s">
-        <v>0</v>
-      </c>
-      <c r="N11" t="s">
-        <v>0</v>
-      </c>
-    </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
       <c r="B12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
         <v>0</v>
@@ -643,10 +643,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="s">
         <v>0</v>
@@ -662,368 +668,407 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
       <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
         <v>3</v>
       </c>
-      <c r="C13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" t="s">
-        <v>2</v>
-      </c>
-      <c r="H13" t="s">
-        <v>2</v>
-      </c>
-      <c r="I13" t="s">
-        <v>1</v>
-      </c>
-      <c r="K13" t="s">
-        <v>1</v>
-      </c>
-      <c r="L13" t="s">
-        <v>0</v>
-      </c>
-      <c r="M13" t="s">
-        <v>0</v>
-      </c>
-      <c r="N13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14">
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
         <v>4</v>
       </c>
-      <c r="C14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" t="s">
-        <v>2</v>
-      </c>
-      <c r="J14" t="s">
-        <v>1</v>
-      </c>
-      <c r="L14" t="s">
-        <v>1</v>
-      </c>
-      <c r="M14" t="s">
-        <v>0</v>
-      </c>
-      <c r="N14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15">
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
         <v>5</v>
       </c>
-      <c r="C15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" t="s">
-        <v>2</v>
-      </c>
-      <c r="H15" t="s">
-        <v>2</v>
-      </c>
-      <c r="I15" t="s">
-        <v>1</v>
-      </c>
-      <c r="K15" t="s">
-        <v>1</v>
-      </c>
-      <c r="M15" t="s">
-        <v>1</v>
-      </c>
-      <c r="N15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16">
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>1</v>
+      </c>
+      <c r="M16" t="s">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17">
         <v>6</v>
       </c>
-      <c r="C16" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" t="s">
-        <v>2</v>
-      </c>
-      <c r="G16" t="s">
-        <v>2</v>
-      </c>
-      <c r="J16" t="s">
-        <v>1</v>
-      </c>
-      <c r="L16" t="s">
-        <v>1</v>
-      </c>
-      <c r="N16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17">
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18">
         <v>7</v>
       </c>
-      <c r="C17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17" t="s">
-        <v>1</v>
-      </c>
-      <c r="J17" t="s">
-        <v>2</v>
-      </c>
-      <c r="L17" t="s">
-        <v>2</v>
-      </c>
-      <c r="N17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18">
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>2</v>
+      </c>
+      <c r="L18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>7</v>
+      </c>
+      <c r="B19">
         <v>8</v>
       </c>
-      <c r="C18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18" t="s">
-        <v>1</v>
-      </c>
-      <c r="I18" t="s">
-        <v>2</v>
-      </c>
-      <c r="K18" t="s">
-        <v>2</v>
-      </c>
-      <c r="M18" t="s">
-        <v>2</v>
-      </c>
-      <c r="N18" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19">
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>2</v>
+      </c>
+      <c r="K19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M19" t="s">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>8</v>
+      </c>
+      <c r="B20">
         <v>9</v>
       </c>
-      <c r="C19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1</v>
-      </c>
-      <c r="G19" t="s">
-        <v>1</v>
-      </c>
-      <c r="J19" t="s">
-        <v>2</v>
-      </c>
-      <c r="L19" t="s">
-        <v>2</v>
-      </c>
-      <c r="M19" t="s">
-        <v>0</v>
-      </c>
-      <c r="N19" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20">
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>2</v>
+      </c>
+      <c r="L20" t="s">
+        <v>2</v>
+      </c>
+      <c r="M20" t="s">
+        <v>0</v>
+      </c>
+      <c r="N20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>9</v>
+      </c>
+      <c r="B21">
         <v>10</v>
       </c>
-      <c r="C20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>0</v>
-      </c>
-      <c r="F20" t="s">
-        <v>1</v>
-      </c>
-      <c r="H20" t="s">
-        <v>1</v>
-      </c>
-      <c r="I20" t="s">
-        <v>2</v>
-      </c>
-      <c r="K20" t="s">
-        <v>2</v>
-      </c>
-      <c r="L20" t="s">
-        <v>0</v>
-      </c>
-      <c r="M20" t="s">
-        <v>0</v>
-      </c>
-      <c r="N20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21">
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>2</v>
+      </c>
+      <c r="K21" t="s">
+        <v>2</v>
+      </c>
+      <c r="L21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="B22">
         <v>11</v>
       </c>
-      <c r="C21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>0</v>
-      </c>
-      <c r="F21" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21" t="s">
-        <v>1</v>
-      </c>
-      <c r="J21" t="s">
-        <v>2</v>
-      </c>
-      <c r="K21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M21" t="s">
-        <v>0</v>
-      </c>
-      <c r="N21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22">
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>2</v>
+      </c>
+      <c r="K22" t="s">
+        <v>0</v>
+      </c>
+      <c r="L22" t="s">
+        <v>0</v>
+      </c>
+      <c r="M22" t="s">
+        <v>0</v>
+      </c>
+      <c r="N22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>11</v>
+      </c>
+      <c r="B23">
         <v>12</v>
       </c>
-      <c r="C22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>0</v>
-      </c>
-      <c r="F22" t="s">
-        <v>0</v>
-      </c>
-      <c r="H22" t="s">
-        <v>1</v>
-      </c>
-      <c r="I22" t="s">
-        <v>2</v>
-      </c>
-      <c r="J22" t="s">
-        <v>0</v>
-      </c>
-      <c r="K22" t="s">
-        <v>0</v>
-      </c>
-      <c r="L22" t="s">
-        <v>0</v>
-      </c>
-      <c r="M22" t="s">
-        <v>0</v>
-      </c>
-      <c r="N22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24">
+      <c r="C23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" t="s">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M23" t="s">
+        <v>0</v>
+      </c>
+      <c r="N23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
         <v>3</v>
       </c>
-      <c r="F24">
+      <c r="F25">
         <v>4</v>
       </c>
-      <c r="G24">
+      <c r="G25">
         <v>5</v>
       </c>
-      <c r="H24">
+      <c r="H25">
         <v>6</v>
       </c>
-      <c r="I24">
+      <c r="I25">
         <v>7</v>
       </c>
-      <c r="J24">
+      <c r="J25">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" t="s">
-        <v>0</v>
-      </c>
-      <c r="F25" t="s">
-        <v>2</v>
-      </c>
-      <c r="G25" t="s">
-        <v>1</v>
-      </c>
-      <c r="H25" t="s">
-        <v>0</v>
-      </c>
-      <c r="I25" t="s">
-        <v>0</v>
-      </c>
-      <c r="J25" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" t="s">
         <v>0</v>
@@ -1032,10 +1077,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="s">
         <v>0</v>
@@ -1044,135 +1095,158 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>0</v>
+      </c>
+      <c r="J27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B28">
         <v>3</v>
       </c>
-      <c r="C27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" t="s">
-        <v>2</v>
-      </c>
-      <c r="F27" t="s">
-        <v>2</v>
-      </c>
-      <c r="G27" t="s">
-        <v>1</v>
-      </c>
-      <c r="I27" t="s">
-        <v>1</v>
-      </c>
-      <c r="J27" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28">
+      <c r="C28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B29">
         <v>4</v>
       </c>
-      <c r="C28" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" t="s">
-        <v>2</v>
-      </c>
-      <c r="H28" t="s">
-        <v>1</v>
-      </c>
-      <c r="J28" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29">
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29" t="s">
+        <v>1</v>
+      </c>
+      <c r="J29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B30">
         <v>5</v>
       </c>
-      <c r="C29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29" t="s">
-        <v>2</v>
-      </c>
-      <c r="J29" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30">
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B31">
         <v>6</v>
       </c>
-      <c r="C30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F30" t="s">
-        <v>1</v>
-      </c>
-      <c r="G30" t="s">
-        <v>2</v>
-      </c>
-      <c r="I30" t="s">
-        <v>2</v>
-      </c>
-      <c r="J30" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31">
+      <c r="C31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>2</v>
+      </c>
+      <c r="I31" t="s">
+        <v>2</v>
+      </c>
+      <c r="J31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B32">
         <v>7</v>
       </c>
-      <c r="C31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>1</v>
-      </c>
-      <c r="H31" t="s">
-        <v>2</v>
-      </c>
-      <c r="I31" t="s">
-        <v>0</v>
-      </c>
-      <c r="J31" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32">
+      <c r="C32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I32" t="s">
+        <v>0</v>
+      </c>
+      <c r="J32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33">
         <v>8</v>
       </c>
-      <c r="C32" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" t="s">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>0</v>
-      </c>
-      <c r="F32" t="s">
-        <v>1</v>
-      </c>
-      <c r="G32" t="s">
-        <v>2</v>
-      </c>
-      <c r="H32" t="s">
-        <v>0</v>
-      </c>
-      <c r="I32" t="s">
-        <v>0</v>
-      </c>
-      <c r="J32" t="s">
+      <c r="C33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>2</v>
+      </c>
+      <c r="H33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I33" t="s">
+        <v>0</v>
+      </c>
+      <c r="J33" t="s">
         <v>0</v>
       </c>
     </row>
